--- a/AngularTheoryAssignment.xlsx
+++ b/AngularTheoryAssignment.xlsx
@@ -647,7 +647,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -730,8 +730,8 @@
   </sheetPr>
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -739,7 +739,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="49.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="30.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="31.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="31.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="29.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="21.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="23.35"/>
@@ -1213,19 +1213,19 @@
       <c r="B21" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="D21" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G21" s="6" t="s">
+      <c r="D21" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1414,13 +1414,13 @@
       <c r="B30" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="n">
@@ -1429,13 +1429,13 @@
       <c r="B31" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="4">
